--- a/ph1/3.4.xlsx
+++ b/ph1/3.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ac2023-2024\ph1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5DE944-6510-4056-AAA2-34B8350072B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C5F94-0318-4A36-824B-683496598FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{0F7474B0-7CBE-4EE5-AE75-14C971942D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0F7474B0-7CBE-4EE5-AE75-14C971942D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>new_parameter, Y</t>
   </si>
@@ -245,7 +245,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13215083367871713"/>
+          <c:y val="8.5339190730295097E-2"/>
+          <c:w val="0.82880515842177371"/>
+          <c:h val="0.81431600422534589"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -277,6 +287,21 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-51D2-4A43-A3A1-02E6F9E9157D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
               <c:showLegendKey val="0"/>
@@ -800,7 +825,590 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>degree 90 loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$53:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3157899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6315800000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9473699999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.263199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.578900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.8947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.2105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.526300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.842099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.157900000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.473700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.7895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.1053</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.421099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.736799999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.052599999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.368400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.684200000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$53:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.9973549960101861E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4772920701581444E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2120001574102718E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4138963451017006E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1516744748686264E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5024439532760928E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6889608140370004E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6976172449688487E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5554676604682294E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7226358006186537E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7561503890181907E-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4521154308903041E-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9731218068489262E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5862542836274371E-12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6279219169957013E-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3961170171868514E-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1144240785382935E-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5270166570723918E-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2869434037764008E-13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4163755541928456E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F19A-4D87-AB63-278F19B91E3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="825944511"/>
+        <c:axId val="161360815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="825944511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Radius</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> / um</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="161360815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="161360815"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Loss in 90 degree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825944511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1356,20 +1964,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1690686</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2486024</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3552824</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1389,6 +2513,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F6E7EF-31CC-59B7-202A-BB15AD8DDF8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1694,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E46C7-496F-4238-B083-06F405F2F9CE}">
-  <dimension ref="A3:E23"/>
+  <dimension ref="A3:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,6 +3267,340 @@
         <v>9.0430273294684153E-13</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="B53">
+        <v>6362.83</v>
+      </c>
+      <c r="C53" s="1">
+        <f>A53*1000000</f>
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <f>PI()*0.5*A53*B53*0.01</f>
+        <v>4.9973549960101861E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>6.3157899999999999E-6</v>
+      </c>
+      <c r="B54">
+        <v>753.697</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:C72" si="2">A54*1000000</f>
+        <v>6.3157899999999998</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" ref="D54:D72" si="3">PI()*0.5*A54*B54*0.01</f>
+        <v>7.4772920701581444E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>7.6315800000000002E-6</v>
+      </c>
+      <c r="B55">
+        <v>101.104</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6315800000000005</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2120001574102718E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>8.9473699999999997E-6</v>
+      </c>
+      <c r="B56">
+        <v>10.0601</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9473699999999994</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4138963451017006E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1.02632E-5</v>
+      </c>
+      <c r="B57">
+        <v>1.33467</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="2"/>
+        <v>10.263199999999999</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1516744748686264E-7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1.15789E-5</v>
+      </c>
+      <c r="B58">
+        <v>0.30253000000000002</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="2"/>
+        <v>11.578900000000001</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5024439532760928E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1.28947E-5</v>
+      </c>
+      <c r="B59">
+        <v>8.3385100000000004E-3</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="2"/>
+        <v>12.8947</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6889608140370004E-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1.4210500000000001E-5</v>
+      </c>
+      <c r="B60">
+        <v>4.3444599999999996E-3</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="2"/>
+        <v>14.2105</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="3"/>
+        <v>9.6976172449688487E-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1.5526300000000001E-5</v>
+      </c>
+      <c r="B61">
+        <v>1.0478099999999999E-3</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="2"/>
+        <v>15.526300000000001</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5554676604682294E-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1.6842099999999999E-5</v>
+      </c>
+      <c r="B62">
+        <v>2.5411100000000001E-4</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="2"/>
+        <v>16.842099999999999</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7226358006186537E-11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1.8157900000000001E-5</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6.1570999999999997E-5</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="2"/>
+        <v>18.157900000000001</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7561503890181907E-11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1.94737E-5</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.12854E-5</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="2"/>
+        <v>19.473700000000001</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4521154308903041E-12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2.0789500000000001E-5</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.8291E-6</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="2"/>
+        <v>20.7895</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9731218068489262E-13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>2.21053E-5</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4.5683199999999997E-6</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="2"/>
+        <v>22.1053</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5862542836274371E-12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>2.3421099999999998E-5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4.4249300000000002E-6</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="2"/>
+        <v>23.421099999999999</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6279219169957013E-12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2.47368E-5</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3.59301E-6</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="2"/>
+        <v>24.736799999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3961170171868514E-12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>2.6052599999999999E-5</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2.7232E-6</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="2"/>
+        <v>26.052599999999998</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1144240785382935E-12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>2.73684E-5</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.98348E-6</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="2"/>
+        <v>27.368400000000001</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5270166570723918E-13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>2.8684199999999999E-5</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.39533E-6</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="2"/>
+        <v>28.684200000000001</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2869434037764008E-13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B72" s="1">
+        <v>9.3718399999999998E-7</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4163755541928456E-13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
